--- a/data/trans_orig/CoPsoQ_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>75961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62383</v>
+        <v>60860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92817</v>
+        <v>90288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2867518328080665</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2354967274010039</v>
+        <v>0.2297451979143287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3503827971009439</v>
+        <v>0.3408368912042652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -764,19 +764,19 @@
         <v>44041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33087</v>
+        <v>33575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57344</v>
+        <v>55966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2800480946375756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2103941985583584</v>
+        <v>0.2134949265127218</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3646377452378477</v>
+        <v>0.3558774980525125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -785,19 +785,19 @@
         <v>120002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101650</v>
+        <v>102027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139479</v>
+        <v>141190</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2842545851309015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2407837441364773</v>
+        <v>0.2416761765420742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3303902071165572</v>
+        <v>0.3344432661672466</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>188940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172084</v>
+        <v>174613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202518</v>
+        <v>204041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7132481671919335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6496172028990562</v>
+        <v>0.6591631087957347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7645032725989961</v>
+        <v>0.7702548020856713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -835,19 +835,19 @@
         <v>113222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99919</v>
+        <v>101297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124176</v>
+        <v>123688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7199519053624244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6353622547621524</v>
+        <v>0.6441225019474879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7896058014416416</v>
+        <v>0.7865050734872783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>290</v>
@@ -856,19 +856,19 @@
         <v>302162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>282685</v>
+        <v>280974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320514</v>
+        <v>320137</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7157454148690985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6696097928834425</v>
+        <v>0.6655567338327534</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7592162558635227</v>
+        <v>0.7583238234579258</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>89200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72093</v>
+        <v>72235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107824</v>
+        <v>105199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2226724022586115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1799669806480915</v>
+        <v>0.1803231738213949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2691649751499308</v>
+        <v>0.2626123003921643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -981,19 +981,19 @@
         <v>64495</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51454</v>
+        <v>49790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80684</v>
+        <v>79741</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2442527507154411</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.194862734428183</v>
+        <v>0.188561889416372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3055628269710115</v>
+        <v>0.3019883164193726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -1002,19 +1002,19 @@
         <v>153695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132763</v>
+        <v>131791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180464</v>
+        <v>177113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2312459781373656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1997509945526982</v>
+        <v>0.1982889346737947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2715210577521221</v>
+        <v>0.2664790699266967</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>311388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>292764</v>
+        <v>295389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328495</v>
+        <v>328353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7773275977413885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7308350248500692</v>
+        <v>0.7373876996078357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.820033019351909</v>
+        <v>0.8196768261786049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -1052,19 +1052,19 @@
         <v>199557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>183368</v>
+        <v>184311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212598</v>
+        <v>214262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7557472492845588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6944371730289888</v>
+        <v>0.6980116835806274</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.805137265571817</v>
+        <v>0.8114381105836279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>469</v>
@@ -1073,19 +1073,19 @@
         <v>510945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>484176</v>
+        <v>487527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>531877</v>
+        <v>532849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7687540218626344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7284789422478778</v>
+        <v>0.7335209300733031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8002490054473018</v>
+        <v>0.8017110653262053</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>60458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47135</v>
+        <v>47249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78553</v>
+        <v>75732</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1910058816665398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1489142132819594</v>
+        <v>0.1492749518687989</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2481729175510808</v>
+        <v>0.2392591832040237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1198,19 +1198,19 @@
         <v>41144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29933</v>
+        <v>30828</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55714</v>
+        <v>54593</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1968581512543423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1432172513299919</v>
+        <v>0.147499252386038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2665678575635635</v>
+        <v>0.261207876472058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -1219,19 +1219,19 @@
         <v>101602</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84405</v>
+        <v>82107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121340</v>
+        <v>121633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1933333372441659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1606105044076134</v>
+        <v>0.1562360989103363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.230890539169549</v>
+        <v>0.2314480032503481</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>256068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237973</v>
+        <v>240794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269391</v>
+        <v>269277</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8089941183334602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7518270824489192</v>
+        <v>0.7607408167959763</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8510857867180406</v>
+        <v>0.8507250481312011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -1269,19 +1269,19 @@
         <v>167860</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153290</v>
+        <v>154411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179071</v>
+        <v>178176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8031418487456576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7334321424364365</v>
+        <v>0.738792123527942</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.856782748670008</v>
+        <v>0.8525007476139621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>382</v>
@@ -1290,19 +1290,19 @@
         <v>423927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404189</v>
+        <v>403896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>441124</v>
+        <v>443422</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8066666627558341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7691094608304511</v>
+        <v>0.7685519967496518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8393894955923866</v>
+        <v>0.8437639010896637</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>86954</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70913</v>
+        <v>71042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105626</v>
+        <v>105161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2132248489477453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1738892941643886</v>
+        <v>0.174206838540487</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2590107451534986</v>
+        <v>0.2578715561550286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1415,19 +1415,19 @@
         <v>68444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53897</v>
+        <v>52286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83997</v>
+        <v>84297</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2315204649920789</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1823134975752191</v>
+        <v>0.1768643046094708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.284129964288963</v>
+        <v>0.2851453249751294</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1436,19 +1436,19 @@
         <v>155398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133372</v>
+        <v>133217</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179518</v>
+        <v>178416</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2209138407819234</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.189600944471547</v>
+        <v>0.1893816210629202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2552032351583143</v>
+        <v>0.2536355550680871</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>320851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302179</v>
+        <v>302644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336892</v>
+        <v>336763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7867751510522547</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7409892548465014</v>
+        <v>0.7421284438449717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8261107058356115</v>
+        <v>0.8257931614595131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>216</v>
@@ -1486,19 +1486,19 @@
         <v>227184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211631</v>
+        <v>211331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241731</v>
+        <v>243342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7684795350079211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.715870035711037</v>
+        <v>0.7148546750248707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8176865024247808</v>
+        <v>0.8231356953905294</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>530</v>
@@ -1507,19 +1507,19 @@
         <v>548035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>523915</v>
+        <v>525017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>570061</v>
+        <v>570216</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7790861592180766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7447967648416857</v>
+        <v>0.7463644449319128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8103990555284529</v>
+        <v>0.8106183789370796</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>312573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -1632,19 +1632,19 @@
         <v>218125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>488</v>
@@ -1653,19 +1653,19 @@
         <v>530698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1077247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1045573</v>
+        <v>1042475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1108062</v>
+        <v>1110870</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7750980353042721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.752308381568574</v>
+        <v>0.7500791254028325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7972703159861566</v>
+        <v>0.7992904374916141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>653</v>
@@ -1703,19 +1703,19 @@
         <v>707822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677413</v>
+        <v>680585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>733569</v>
+        <v>732686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7644306805035411</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7315889708497993</v>
+        <v>0.7350145450237656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7922365854261355</v>
+        <v>0.7912831684095859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1671</v>
@@ -1724,19 +1724,19 @@
         <v>1785069</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1742896</v>
+        <v>1738575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1824824</v>
+        <v>1824010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7708327519534548</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7526214783397871</v>
+        <v>0.7507555673424448</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7879999771615185</v>
+        <v>0.7876482299753822</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>53542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41733</v>
+        <v>42163</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68768</v>
+        <v>68227</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2218691414874421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1729371728839681</v>
+        <v>0.1747163057872095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2849651086181633</v>
+        <v>0.2827233210441422</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -2089,19 +2089,19 @@
         <v>50418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39609</v>
+        <v>39100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62557</v>
+        <v>61835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3069919209686208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.241174408741132</v>
+        <v>0.2380787978147342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3809080663569469</v>
+        <v>0.37651185420443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -2110,19 +2110,19 @@
         <v>103960</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88340</v>
+        <v>87658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124490</v>
+        <v>123274</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2563403739312622</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2178261089743194</v>
+        <v>0.2161431749834799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.306963076979773</v>
+        <v>0.3039662706646769</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>187779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172553</v>
+        <v>173094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199588</v>
+        <v>199158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7781308585125579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7150348913818373</v>
+        <v>0.7172766789558578</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.827062827116032</v>
+        <v>0.8252836942127906</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>119</v>
@@ -2160,19 +2160,19 @@
         <v>113814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101675</v>
+        <v>102397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124623</v>
+        <v>125132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6930080790313793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6190919336430527</v>
+        <v>0.62348814579557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7588255912588675</v>
+        <v>0.7619212021852658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -2181,19 +2181,19 @@
         <v>301593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>281063</v>
+        <v>282279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>317213</v>
+        <v>317895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7436596260687378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6930369230202269</v>
+        <v>0.6960337293353231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7821738910256807</v>
+        <v>0.7838568250165201</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>83738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67778</v>
+        <v>68296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102535</v>
+        <v>101431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2026338314527815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1640128417345047</v>
+        <v>0.1652670456969258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2481218256911482</v>
+        <v>0.2454503570730224</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -2306,19 +2306,19 @@
         <v>64161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51884</v>
+        <v>51110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79471</v>
+        <v>79822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2352378383949326</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1902230682483781</v>
+        <v>0.1873873712405189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2913669537865158</v>
+        <v>0.292654682262218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -2327,19 +2327,19 @@
         <v>147899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126576</v>
+        <v>126561</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169753</v>
+        <v>169525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2155971239437977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1845140539072389</v>
+        <v>0.1844917545166682</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2474551597165397</v>
+        <v>0.2471224167747949</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>329508</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>310711</v>
+        <v>311815</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345468</v>
+        <v>344950</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7973661685472185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7518781743088518</v>
+        <v>0.7545496429269776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8359871582654955</v>
+        <v>0.8347329543030741</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>202</v>
@@ -2377,19 +2377,19 @@
         <v>208590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193280</v>
+        <v>192929</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>220867</v>
+        <v>221641</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7647621616050674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7086330462134839</v>
+        <v>0.7073453177377809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8097769317516218</v>
+        <v>0.812612628759481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>495</v>
@@ -2398,19 +2398,19 @@
         <v>538098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>516244</v>
+        <v>516472</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>559421</v>
+        <v>559436</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7844028760562023</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7525448402834605</v>
+        <v>0.7528775832252053</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8154859460927611</v>
+        <v>0.8155082454833318</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>67306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53623</v>
+        <v>51019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84551</v>
+        <v>84118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1855339407398466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1478142221640796</v>
+        <v>0.1406369050507278</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2330714266004112</v>
+        <v>0.2318771463284601</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -2523,19 +2523,19 @@
         <v>40879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30045</v>
+        <v>29499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53303</v>
+        <v>53975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.151672602647666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1114747560021576</v>
+        <v>0.1094485228096923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1977689157173468</v>
+        <v>0.2002613045147553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -2544,19 +2544,19 @@
         <v>108186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90029</v>
+        <v>90150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128221</v>
+        <v>130319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1711000706413317</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1423842752708433</v>
+        <v>0.1425754630013306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2027867125394875</v>
+        <v>0.2061053003318855</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>295464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278219</v>
+        <v>278652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309147</v>
+        <v>311751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8144660592601534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.76692857339959</v>
+        <v>0.76812285367154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8521857778359211</v>
+        <v>0.8593630949492727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -2594,19 +2594,19 @@
         <v>228645</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216221</v>
+        <v>215549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>239479</v>
+        <v>240025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.848327397352334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8022310842826531</v>
+        <v>0.7997386954852445</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8885252439978423</v>
+        <v>0.8905514771903077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>489</v>
@@ -2615,19 +2615,19 @@
         <v>524108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>504073</v>
+        <v>501975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542265</v>
+        <v>542144</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8288999293586683</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7972132874605123</v>
+        <v>0.7938946996681144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8576157247291566</v>
+        <v>0.8574245369986694</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>113166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95172</v>
+        <v>95916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131991</v>
+        <v>133337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2836229625014658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2385264493263813</v>
+        <v>0.2403898928739282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3308025933491265</v>
+        <v>0.334177081526873</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -2740,19 +2740,19 @@
         <v>82118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65732</v>
+        <v>65885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97781</v>
+        <v>97810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2523015210999024</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2019591310770445</v>
+        <v>0.202428050013091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.300426225635328</v>
+        <v>0.300515222283965</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -2761,19 +2761,19 @@
         <v>195283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>172083</v>
+        <v>173646</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>219280</v>
+        <v>221800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2695516381396976</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2375281471100014</v>
+        <v>0.23968571209791</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3026741723893161</v>
+        <v>0.3061530465623807</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>285835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267010</v>
+        <v>265664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303829</v>
+        <v>303085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7163770374985342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6691974066508732</v>
+        <v>0.6658229184731274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7614735506736185</v>
+        <v>0.759610107126072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -2811,19 +2811,19 @@
         <v>243356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>227693</v>
+        <v>227664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259742</v>
+        <v>259589</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7476984789000976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6995737743646721</v>
+        <v>0.699484777716035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7980408689229556</v>
+        <v>0.7975719499869089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>513</v>
@@ -2832,19 +2832,19 @@
         <v>529192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505195</v>
+        <v>502675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>552392</v>
+        <v>550829</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7304483618603025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6973258276106838</v>
+        <v>0.6938469534376189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7624718528899985</v>
+        <v>0.7603142879020899</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>317751</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -2957,19 +2957,19 @@
         <v>237576</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>531</v>
@@ -2978,19 +2978,19 @@
         <v>555327</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1098586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1063692</v>
+        <v>1064158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1129183</v>
+        <v>1127912</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7756529168610102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.751016205058498</v>
+        <v>0.7513451607082292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7972560062364052</v>
+        <v>0.7963582336831014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>775</v>
@@ -3028,19 +3028,19 @@
         <v>794406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>764711</v>
+        <v>765328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>820356</v>
+        <v>820630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7697861987449395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7410122285769259</v>
+        <v>0.7416095145308691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.794932947072426</v>
+        <v>0.7951982499976175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1794</v>
@@ -3049,19 +3049,19 @@
         <v>1892991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1849389</v>
+        <v>1848772</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1931484</v>
+        <v>1934440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7731800581980632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7553711378134933</v>
+        <v>0.7551192265538728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7889023698334997</v>
+        <v>0.790109982119777</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>28871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18706</v>
+        <v>18994</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40600</v>
+        <v>42212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.295476276120674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1914374958364002</v>
+        <v>0.1943910443721547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4155064777950452</v>
+        <v>0.4320124478764883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -3414,19 +3414,19 @@
         <v>20746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14210</v>
+        <v>14216</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28687</v>
+        <v>28032</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2705285952643193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1853002910199076</v>
+        <v>0.1853776101211564</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3740771203977654</v>
+        <v>0.3655404285933198</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -3435,19 +3435,19 @@
         <v>49617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37895</v>
+        <v>36692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64241</v>
+        <v>63233</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2845061763134146</v>
+        <v>0.2845061763134145</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2172880950712729</v>
+        <v>0.2103946711580187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3683610165089446</v>
+        <v>0.3625784231278075</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>68840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57111</v>
+        <v>55499</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79005</v>
+        <v>78717</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.704523723879326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5844935222049549</v>
+        <v>0.5679875521235115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8085625041635998</v>
+        <v>0.8056089556278454</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -3485,19 +3485,19 @@
         <v>55941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48000</v>
+        <v>48655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62477</v>
+        <v>62471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7294714047356805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6259228796022349</v>
+        <v>0.6344595714066804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8146997089800925</v>
+        <v>0.8146223898788442</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>125</v>
@@ -3506,19 +3506,19 @@
         <v>124781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110157</v>
+        <v>111165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>136503</v>
+        <v>137706</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7154938236865855</v>
+        <v>0.7154938236865854</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6316389834910554</v>
+        <v>0.6374215768721926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7827119049287272</v>
+        <v>0.7896053288419812</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>45675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34253</v>
+        <v>31894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60758</v>
+        <v>59610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2736263858636849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2051968966123036</v>
+        <v>0.1910672167505548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3639811848434824</v>
+        <v>0.3571022785980231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -3631,19 +3631,19 @@
         <v>28458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20529</v>
+        <v>20567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37640</v>
+        <v>38090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2315260132099845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1670153538454082</v>
+        <v>0.1673283476494888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.306222276753858</v>
+        <v>0.3098830332584277</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -3652,19 +3652,19 @@
         <v>74134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58595</v>
+        <v>58210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90995</v>
+        <v>91725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.255772472628263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2021601804588737</v>
+        <v>0.2008316141382986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3139468710544836</v>
+        <v>0.3164629145050415</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>121251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106168</v>
+        <v>107316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>132673</v>
+        <v>135032</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7263736141363152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6360188151565176</v>
+        <v>0.6428977214019767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7948031033876964</v>
+        <v>0.8089327832494452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -3702,19 +3702,19 @@
         <v>94459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85277</v>
+        <v>84827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>102388</v>
+        <v>102350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7684739867900156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6937777232461418</v>
+        <v>0.6901169667415723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8329846461545916</v>
+        <v>0.832671652350511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>225</v>
@@ -3723,19 +3723,19 @@
         <v>215709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>198848</v>
+        <v>198118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231248</v>
+        <v>231633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7442275273717369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6860531289455164</v>
+        <v>0.6835370854949584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7978398195411264</v>
+        <v>0.7991683858617014</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>33040</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22609</v>
+        <v>22631</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46681</v>
+        <v>47199</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3582110237896538</v>
+        <v>0.3582110237896539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2451138492305445</v>
+        <v>0.2453618110972209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5060936356498728</v>
+        <v>0.5117108804799666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3848,19 +3848,19 @@
         <v>26836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19550</v>
+        <v>19020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36606</v>
+        <v>35612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.295146149854258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2150109291124986</v>
+        <v>0.2091851558833492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4025941177298363</v>
+        <v>0.3916587352874543</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3869,19 +3869,19 @@
         <v>59876</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47152</v>
+        <v>46521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74979</v>
+        <v>74798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3269043655749757</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2574317103344985</v>
+        <v>0.2539872860935438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4093563345102817</v>
+        <v>0.4083692758377704</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>59197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45556</v>
+        <v>45038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69628</v>
+        <v>69606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6417889762103461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4939063643501271</v>
+        <v>0.4882891195200333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7548861507694553</v>
+        <v>0.7546381889027789</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -3919,19 +3919,19 @@
         <v>64089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54319</v>
+        <v>55313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71375</v>
+        <v>71905</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7048538501457419</v>
+        <v>0.704853850145742</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5974058822701637</v>
+        <v>0.6083412647125461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7849890708875015</v>
+        <v>0.7908148441166508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>126</v>
@@ -3940,19 +3940,19 @@
         <v>123286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108183</v>
+        <v>108364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136010</v>
+        <v>136641</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6730956344250244</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5906436654897181</v>
+        <v>0.5916307241622297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7425682896655014</v>
+        <v>0.7460127139064562</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>46845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36121</v>
+        <v>36315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58340</v>
+        <v>58953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4054691820378212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3126424665020396</v>
+        <v>0.3143221229004057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5049578425904109</v>
+        <v>0.5102682932353052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4065,19 +4065,19 @@
         <v>38771</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29963</v>
+        <v>29649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47116</v>
+        <v>46605</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4148177862425017</v>
+        <v>0.4148177862425015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3205804886992044</v>
+        <v>0.3172261005241105</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5041101986516426</v>
+        <v>0.4986391273760382</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -4086,19 +4086,19 @@
         <v>85616</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72315</v>
+        <v>72650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99758</v>
+        <v>100645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4096498747032133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3460088240893608</v>
+        <v>0.3476110100076845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4773177360475478</v>
+        <v>0.4815615340108123</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>68689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57194</v>
+        <v>56581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79413</v>
+        <v>79219</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5945308179621785</v>
+        <v>0.5945308179621787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4950421574095892</v>
+        <v>0.4897317067646947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6873575334979604</v>
+        <v>0.6856778770995942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -4136,19 +4136,19 @@
         <v>54693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46348</v>
+        <v>46859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63501</v>
+        <v>63815</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5851822137574986</v>
+        <v>0.5851822137574985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4958898013483574</v>
+        <v>0.5013608726239619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6794195113007959</v>
+        <v>0.6827738994758896</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -4157,19 +4157,19 @@
         <v>123381</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109239</v>
+        <v>108352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>136682</v>
+        <v>136347</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5903501252967867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5226822639524522</v>
+        <v>0.5184384659891877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6539911759106393</v>
+        <v>0.6523889899923158</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>154432</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -4282,19 +4282,19 @@
         <v>114811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -4303,19 +4303,19 @@
         <v>269243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>317976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>291280</v>
+        <v>293775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340715</v>
+        <v>341855</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6730952918878057</v>
+        <v>0.6730952918878058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6165859590107186</v>
+        <v>0.6218674863862972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7212295826421897</v>
+        <v>0.7236437504591205</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>350</v>
@@ -4353,19 +4353,19 @@
         <v>269181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251745</v>
+        <v>252528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285392</v>
+        <v>285690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7010070722802016</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6555990202845194</v>
+        <v>0.6576380462984657</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7432234532253618</v>
+        <v>0.7439991315377318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -4374,19 +4374,19 @@
         <v>587157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>557075</v>
+        <v>557955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>615787</v>
+        <v>615244</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6856103628876933</v>
+        <v>0.6856103628876936</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.650485067104585</v>
+        <v>0.6515124364091152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7190412681882793</v>
+        <v>0.7184068455568888</v>
       </c>
     </row>
     <row r="18">
